--- a/NformTester/NformTester/Keywordscripts/600.10.30.160_NewDeviceMustUseNewGlobalSettings.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.30.160_NewDeviceMustUseNewGlobalSettings.xlsx
@@ -1259,7 +1259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7937" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7939" uniqueCount="886">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3964,6 +3964,14 @@
   </si>
   <si>
     <t>Interval - every 5 h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_default.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4136,7 +4144,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4147,8 +4155,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4189,27 +4200,18 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4517,7 +4519,7 @@
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5177,6 +5179,12 @@
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14">
+      <c r="A23" s="18" t="s">
+        <v>884</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>885</v>
+      </c>
       <c r="C23" s="3">
         <v>22</v>
       </c>

--- a/NformTester/NformTester/Keywordscripts/600.10.30.160_NewDeviceMustUseNewGlobalSettings.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.30.160_NewDeviceMustUseNewGlobalSettings.xlsx
@@ -3971,8 +3971,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_default.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -4525,7 +4524,7 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
     <col min="5" max="5" width="23.125" customWidth="1"/>
     <col min="6" max="6" width="26.875" customWidth="1"/>
     <col min="7" max="7" width="22.25" customWidth="1"/>

--- a/NformTester/NformTester/Keywordscripts/600.10.30.160_NewDeviceMustUseNewGlobalSettings.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.30.160_NewDeviceMustUseNewGlobalSettings.xlsx
@@ -3904,13 +3904,6 @@
     <t>$SNMP_device_1$</t>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_1_NAME$</t>
-  </si>
-  <si>
     <t>;The goal of this test is verify the device status polling while adding a new device</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3939,10 +3932,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_5_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;Verify that 'Interval every 5 h ' and 'Disabled' will be presented under status polling on device properties window. 'Interval every 5 h' is selected by default.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3951,10 +3940,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_3_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$SNMP_GXT_5$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3972,6 +3957,22 @@
   </si>
   <si>
     <t>Pre_default</t>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_1$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_3$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_5$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4517,8 +4518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B23"/>
+    <sheetView tabSelected="1" topLeftCell="D61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4700,7 +4701,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -4740,7 +4741,7 @@
         <v>866</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>868</v>
+        <v>882</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>845</v>
@@ -4762,7 +4763,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -4852,7 +4853,7 @@
         <v>56</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>868</v>
+        <v>882</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4988,7 +4989,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -5179,10 +5180,10 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="18" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C23" s="3">
         <v>22</v>
@@ -5286,7 +5287,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -5304,7 +5305,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>620</v>
@@ -5320,7 +5321,7 @@
         <v>867</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>869</v>
+        <v>883</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>845</v>
@@ -5420,7 +5421,7 @@
         <v>56</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>869</v>
+        <v>883</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -5522,13 +5523,13 @@
         <v>7</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>851</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -5852,7 +5853,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -5870,7 +5871,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>620</v>
@@ -5883,10 +5884,10 @@
         <v>844</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>845</v>
@@ -5986,7 +5987,7 @@
         <v>56</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
@@ -6024,7 +6025,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="3"/>
@@ -6106,13 +6107,13 @@
         <v>7</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>851</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -6362,7 +6363,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -6380,7 +6381,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>620</v>
@@ -6393,10 +6394,10 @@
         <v>844</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>845</v>
@@ -6496,7 +6497,7 @@
         <v>56</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -6580,7 +6581,7 @@
         <v>559</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>5</v>
